--- a/ms/Model output 1-4-20.xlsx
+++ b/ms/Model output 1-4-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09AB4E6B-787D-C34A-BC20-D037EE435485}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CF68BF-122C-ED4C-913D-25EAFE090527}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="38380" windowHeight="19820" xr2:uid="{EC1F9534-E0CF-8349-8E11-A06F703723A9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38380" windowHeight="19820" xr2:uid="{EC1F9534-E0CF-8349-8E11-A06F703723A9}"/>
   </bookViews>
   <sheets>
     <sheet name="intercept models" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="93">
   <si>
     <t xml:space="preserve">Intercept only models are our most simple multilevel mixed models to compare SMD (means) and lnCVR (variance) for males and females, in each taxo group. </t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>p=0.18</t>
+  </si>
+  <si>
+    <t>Why do we see a phylo signal for birds and mammals and not ectotherms?</t>
   </si>
 </sst>
 </file>
@@ -752,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B666B833-EEDE-5143-A3EE-5623948899F1}">
-  <dimension ref="A1:AD29"/>
+  <dimension ref="A1:AI29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1403,7 +1406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5">
         <v>-9.1999999999999998E-2</v>
@@ -1474,7 +1477,7 @@
         <v>0.50490000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1491,7 +1494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1538,7 +1541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
@@ -1579,7 +1582,7 @@
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="6" t="s">
         <v>6</v>
@@ -1650,7 +1653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1804,7 +1807,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1851,8 +1854,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="2">
@@ -1861,34 +1864,34 @@
       <c r="E25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="2">
         <v>0</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="2">
         <v>0</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="2">
         <v>0.41299999999999998</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="AB25" s="2">
@@ -1897,11 +1900,14 @@
       <c r="AC25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AD25" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AI25" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
@@ -1989,7 +1995,7 @@
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
         <v>6</v>
@@ -2060,7 +2066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5">
         <v>-0.16339999999999999</v>
@@ -2140,7 +2146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF49CDE-84B6-D343-B891-0EC6B54D820A}">
   <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -4176,7 +4182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5577267-BCA2-5748-AEA2-983D3E1A1019}">
   <dimension ref="A1:AH47"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/ms/Model output 1-4-20.xlsx
+++ b/ms/Model output 1-4-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CF68BF-122C-ED4C-913D-25EAFE090527}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982E264D-B7F0-BD40-B19C-3CAE6108F4F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38380" windowHeight="19820" xr2:uid="{EC1F9534-E0CF-8349-8E11-A06F703723A9}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="38380" windowHeight="19820" activeTab="2" xr2:uid="{EC1F9534-E0CF-8349-8E11-A06F703723A9}"/>
   </bookViews>
   <sheets>
     <sheet name="intercept models" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="133">
   <si>
     <t xml:space="preserve">Intercept only models are our most simple multilevel mixed models to compare SMD (means) and lnCVR (variance) for males and females, in each taxo group. </t>
   </si>
@@ -260,9 +260,6 @@
     <t>p=0.9998</t>
   </si>
   <si>
-    <t>Random Effects Multilevel Models - Personality traits, taxonomic group and SSD</t>
-  </si>
-  <si>
     <t>A more sensible bunch of models to see how SSD interacts with SMD (means) and lnCVR (variance) in each taxo group, across each personality trait in a sex-specific manner</t>
   </si>
   <si>
@@ -306,13 +303,136 @@
   </si>
   <si>
     <t>Why do we see a phylo signal for birds and mammals and not ectotherms?</t>
+  </si>
+  <si>
+    <t>Random Effects Multilevel Models - Personality traits, taxonomic group and SSD (scaled and centered)</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>dropped Signif.</t>
+  </si>
+  <si>
+    <t>*why is the error so large?</t>
+  </si>
+  <si>
+    <t>became signif.</t>
+  </si>
+  <si>
+    <t>Important to note that activity is the intercept for these models until I can extract mean estimates for each trait…</t>
+  </si>
+  <si>
+    <t>*dropped Signif</t>
+  </si>
+  <si>
+    <t>*dropped signif</t>
+  </si>
+  <si>
+    <t>*high se?</t>
+  </si>
+  <si>
+    <t>Same model as above but with no interaction term to look at significance of main fixed factors</t>
+  </si>
+  <si>
+    <t>p=0.0009</t>
+  </si>
+  <si>
+    <t>*not significant</t>
+  </si>
+  <si>
+    <t>*now signif.</t>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>*now significant</t>
+  </si>
+  <si>
+    <t>*no longer signif.</t>
+  </si>
+  <si>
+    <t>*became significant</t>
+  </si>
+  <si>
+    <t>*dropped signif.</t>
+  </si>
+  <si>
+    <t>*reptiles didn't change at all</t>
+  </si>
+  <si>
+    <t>p=0.67</t>
+  </si>
+  <si>
+    <t>*NS</t>
+  </si>
+  <si>
+    <t>p=0.59</t>
+  </si>
+  <si>
+    <t>p=0.89</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n = no. effects</t>
+  </si>
+  <si>
+    <t>k = no. studies (unique)</t>
+  </si>
+  <si>
+    <t>Important to note that each estimate here is the mean estimate</t>
+  </si>
+  <si>
+    <t>Comparing models to disentangle phylo signal and high study_ID contribution to variance</t>
+  </si>
+  <si>
+    <t>No phylo vcv in I2 calculation (phylo = FALSE in I2 function)</t>
+  </si>
+  <si>
+    <t>Study_ID</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>spp_name</t>
+  </si>
+  <si>
+    <t>phylo</t>
+  </si>
+  <si>
+    <t>2.5%CI</t>
+  </si>
+  <si>
+    <t>97.5% CI</t>
+  </si>
+  <si>
+    <t>ALL VARIABLES</t>
+  </si>
+  <si>
+    <t>No phylo vcv</t>
+  </si>
+  <si>
+    <t>Random Effects Multilevel Models - Personality traits, taxonomic group and SSD (not scaled, males &gt; females = positive value)</t>
+  </si>
+  <si>
+    <t>Random Effects Multilevel Models - Personality traits, taxonomic group and SSD (not scaled, no interaction term)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -355,6 +475,15 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -419,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -441,6 +570,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B666B833-EEDE-5143-A3EE-5623948899F1}">
-  <dimension ref="A1:AI29"/>
+  <dimension ref="A1:AI62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1904,7 +2036,7 @@
         <v>57</v>
       </c>
       <c r="AI25" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
@@ -2137,6 +2269,331 @@
         <v>0.60960000000000003</v>
       </c>
     </row>
+    <row r="31" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37">
+        <v>0.79</v>
+      </c>
+      <c r="C37">
+        <v>0.71</v>
+      </c>
+      <c r="D37">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40">
+        <v>0.93</v>
+      </c>
+      <c r="C40">
+        <v>0.91</v>
+      </c>
+      <c r="D40">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44">
+        <v>0.79</v>
+      </c>
+      <c r="C44">
+        <v>0.71</v>
+      </c>
+      <c r="D44">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>0.93</v>
+      </c>
+      <c r="C47">
+        <v>0.91</v>
+      </c>
+      <c r="D47">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52">
+        <v>0.02</v>
+      </c>
+      <c r="C52">
+        <v>0.01</v>
+      </c>
+      <c r="D52">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53">
+        <v>0.43</v>
+      </c>
+      <c r="C53">
+        <v>0.36</v>
+      </c>
+      <c r="D53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54">
+        <v>0.46</v>
+      </c>
+      <c r="C54">
+        <v>0.39</v>
+      </c>
+      <c r="D54">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55">
+        <v>0.94</v>
+      </c>
+      <c r="C55">
+        <v>0.93</v>
+      </c>
+      <c r="D55">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59">
+        <v>0.02</v>
+      </c>
+      <c r="C59">
+        <v>0.01</v>
+      </c>
+      <c r="D59">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60">
+        <v>0.43</v>
+      </c>
+      <c r="C60">
+        <v>0.36</v>
+      </c>
+      <c r="D60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62">
+        <v>0.94</v>
+      </c>
+      <c r="C62">
+        <v>0.93</v>
+      </c>
+      <c r="D62">
+        <v>0.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2144,10 +2601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF49CDE-84B6-D343-B891-0EC6B54D820A}">
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2159,23 +2616,28 @@
     <col min="29" max="29" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="11" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" s="11" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
@@ -2220,8 +2682,9 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI5" s="18"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2238,7 +2701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>61</v>
       </c>
@@ -2285,7 +2748,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
@@ -2347,7 +2810,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -2392,8 +2855,9 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI9" s="8"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="6" t="s">
         <v>6</v>
@@ -2478,8 +2942,9 @@
       <c r="AH10" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI10" s="6"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2545,7 +3010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2607,7 +3072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2669,7 +3134,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -2714,8 +3179,9 @@
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI14" s="8"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
         <v>6</v>
@@ -2729,8 +3195,12 @@
       <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
         <v>6</v>
@@ -2744,8 +3214,12 @@
       <c r="L15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="M15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6" t="s">
         <v>6</v>
@@ -2759,8 +3233,12 @@
       <c r="S15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
+      <c r="T15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="V15" s="6"/>
       <c r="W15" s="6" t="s">
         <v>6</v>
@@ -2774,8 +3252,12 @@
       <c r="Z15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
+      <c r="AA15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6" t="s">
         <v>6</v>
@@ -2789,9 +3271,14 @@
       <c r="AG15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AH15" s="6"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI15" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -2807,6 +3294,12 @@
       <c r="E16">
         <v>0.56000000000000005</v>
       </c>
+      <c r="F16" s="22">
+        <v>74</v>
+      </c>
+      <c r="G16" s="22">
+        <v>14</v>
+      </c>
       <c r="H16" t="s">
         <v>63</v>
       </c>
@@ -2822,6 +3315,12 @@
       <c r="L16">
         <v>0.62</v>
       </c>
+      <c r="M16" s="22">
+        <v>92</v>
+      </c>
+      <c r="N16" s="22">
+        <v>9</v>
+      </c>
       <c r="O16" t="s">
         <v>63</v>
       </c>
@@ -2837,6 +3336,12 @@
       <c r="S16">
         <v>0.8</v>
       </c>
+      <c r="T16" s="22">
+        <v>205</v>
+      </c>
+      <c r="U16" s="22">
+        <v>22</v>
+      </c>
       <c r="V16" t="s">
         <v>63</v>
       </c>
@@ -2852,6 +3357,12 @@
       <c r="Z16">
         <v>0.41</v>
       </c>
+      <c r="AA16" s="22">
+        <v>84</v>
+      </c>
+      <c r="AB16" s="22">
+        <v>14</v>
+      </c>
       <c r="AC16" t="s">
         <v>63</v>
       </c>
@@ -2867,8 +3378,14 @@
       <c r="AG16">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH16" s="22">
+        <v>5</v>
+      </c>
+      <c r="AI16" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -2884,6 +3401,12 @@
       <c r="E17">
         <v>0.36</v>
       </c>
+      <c r="F17" s="22">
+        <v>50</v>
+      </c>
+      <c r="G17" s="22">
+        <v>11</v>
+      </c>
       <c r="H17" t="s">
         <v>64</v>
       </c>
@@ -2899,6 +3422,12 @@
       <c r="L17">
         <v>0.88</v>
       </c>
+      <c r="M17" s="22">
+        <v>95</v>
+      </c>
+      <c r="N17" s="22">
+        <v>17</v>
+      </c>
       <c r="O17" s="2" t="s">
         <v>64</v>
       </c>
@@ -2914,7 +3443,12 @@
       <c r="S17" s="2">
         <v>0.02</v>
       </c>
-      <c r="T17" s="2"/>
+      <c r="T17" s="3">
+        <v>45</v>
+      </c>
+      <c r="U17" s="3">
+        <v>9</v>
+      </c>
       <c r="V17" t="s">
         <v>64</v>
       </c>
@@ -2930,7 +3464,12 @@
       <c r="Z17" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AA17" s="3"/>
+      <c r="AA17" s="23">
+        <v>87</v>
+      </c>
+      <c r="AB17" s="23">
+        <v>16</v>
+      </c>
       <c r="AC17" t="s">
         <v>64</v>
       </c>
@@ -2946,8 +3485,14 @@
       <c r="AG17">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH17" s="22">
+        <v>30</v>
+      </c>
+      <c r="AI17" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -2963,6 +3508,12 @@
       <c r="E18">
         <v>0.36</v>
       </c>
+      <c r="F18" s="22">
+        <v>264</v>
+      </c>
+      <c r="G18" s="22">
+        <v>24</v>
+      </c>
       <c r="H18" t="s">
         <v>65</v>
       </c>
@@ -2978,6 +3529,12 @@
       <c r="L18">
         <v>0.75</v>
       </c>
+      <c r="M18" s="22">
+        <v>176</v>
+      </c>
+      <c r="N18" s="22">
+        <v>24</v>
+      </c>
       <c r="O18" t="s">
         <v>65</v>
       </c>
@@ -2993,6 +3550,12 @@
       <c r="S18">
         <v>0.14000000000000001</v>
       </c>
+      <c r="T18" s="22">
+        <v>178</v>
+      </c>
+      <c r="U18" s="22">
+        <v>27</v>
+      </c>
       <c r="V18" t="s">
         <v>65</v>
       </c>
@@ -3008,7 +3571,12 @@
       <c r="Z18" s="3">
         <v>0.34</v>
       </c>
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="23">
+        <v>208</v>
+      </c>
+      <c r="AB18" s="23">
+        <v>27</v>
+      </c>
       <c r="AC18" t="s">
         <v>65</v>
       </c>
@@ -3024,8 +3592,14 @@
       <c r="AG18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH18" s="22">
+        <v>25</v>
+      </c>
+      <c r="AI18" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -3041,6 +3615,12 @@
       <c r="E19">
         <v>0.46</v>
       </c>
+      <c r="F19" s="22">
+        <v>84</v>
+      </c>
+      <c r="G19" s="22">
+        <v>16</v>
+      </c>
       <c r="H19" t="s">
         <v>66</v>
       </c>
@@ -3056,6 +3636,12 @@
       <c r="L19">
         <v>0.98</v>
       </c>
+      <c r="M19" s="22">
+        <v>105</v>
+      </c>
+      <c r="N19" s="22">
+        <v>11</v>
+      </c>
       <c r="O19" t="s">
         <v>66</v>
       </c>
@@ -3071,6 +3657,12 @@
       <c r="S19">
         <v>0.65</v>
       </c>
+      <c r="T19" s="22">
+        <v>31</v>
+      </c>
+      <c r="U19" s="22">
+        <v>9</v>
+      </c>
       <c r="V19" t="s">
         <v>66</v>
       </c>
@@ -3086,7 +3678,12 @@
       <c r="Z19" s="3">
         <v>0.8</v>
       </c>
-      <c r="AA19" s="3"/>
+      <c r="AA19" s="23">
+        <v>223</v>
+      </c>
+      <c r="AB19" s="23">
+        <v>19</v>
+      </c>
       <c r="AC19" s="2" t="s">
         <v>66</v>
       </c>
@@ -3102,8 +3699,14 @@
       <c r="AG19" s="2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="20" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AH19" s="23">
+        <v>32</v>
+      </c>
+      <c r="AI19" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -3119,8 +3722,12 @@
       <c r="E20" s="15">
         <v>0.04</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
+      <c r="F20" s="17">
+        <v>34</v>
+      </c>
+      <c r="G20" s="17">
+        <v>4</v>
+      </c>
       <c r="H20" s="16" t="s">
         <v>67</v>
       </c>
@@ -3136,8 +3743,12 @@
       <c r="L20" s="17">
         <v>0.31</v>
       </c>
-      <c r="M20" s="17"/>
-      <c r="N20" s="16"/>
+      <c r="M20" s="17">
+        <v>34</v>
+      </c>
+      <c r="N20" s="16">
+        <v>7</v>
+      </c>
       <c r="O20" s="16" t="s">
         <v>67</v>
       </c>
@@ -3153,8 +3764,12 @@
       <c r="S20" s="16">
         <v>0.22</v>
       </c>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
+      <c r="T20" s="16">
+        <v>9</v>
+      </c>
+      <c r="U20" s="16">
+        <v>2</v>
+      </c>
       <c r="V20" s="16" t="s">
         <v>67</v>
       </c>
@@ -3170,8 +3785,12 @@
       <c r="Z20" s="17">
         <v>0.64</v>
       </c>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="16"/>
+      <c r="AA20" s="17">
+        <v>98</v>
+      </c>
+      <c r="AB20" s="16">
+        <v>12</v>
+      </c>
       <c r="AC20" s="16" t="s">
         <v>67</v>
       </c>
@@ -3187,9 +3806,14 @@
       <c r="AG20" s="16">
         <v>0.98</v>
       </c>
-      <c r="AH20" s="16"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH20" s="16">
+        <v>3</v>
+      </c>
+      <c r="AI20" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -3206,7 +3830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>61</v>
       </c>
@@ -3253,7 +3877,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
@@ -3315,7 +3939,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>4</v>
       </c>
@@ -3360,8 +3984,9 @@
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI24" s="8"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="6" t="s">
         <v>6</v>
@@ -3446,8 +4071,9 @@
       <c r="AH25" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI25" s="6"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -3509,7 +4135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -3573,7 +4199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -3635,7 +4261,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>7</v>
       </c>
@@ -3680,8 +4306,9 @@
       <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI29" s="8"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>6</v>
       </c>
@@ -3694,6 +4321,12 @@
       <c r="E30" t="s">
         <v>10</v>
       </c>
+      <c r="F30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="I30" t="s">
         <v>6</v>
       </c>
@@ -3706,6 +4339,12 @@
       <c r="L30" t="s">
         <v>10</v>
       </c>
+      <c r="M30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="P30" t="s">
         <v>6</v>
       </c>
@@ -3718,6 +4357,12 @@
       <c r="S30" t="s">
         <v>10</v>
       </c>
+      <c r="T30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="W30" t="s">
         <v>6</v>
       </c>
@@ -3730,6 +4375,12 @@
       <c r="Z30" t="s">
         <v>10</v>
       </c>
+      <c r="AA30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="AD30" t="s">
         <v>6</v>
       </c>
@@ -3742,8 +4393,14 @@
       <c r="AG30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>63</v>
       </c>
@@ -3759,8 +4416,12 @@
       <c r="E31" s="8">
         <v>0.87</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="F31" s="22">
+        <v>74</v>
+      </c>
+      <c r="G31" s="22">
+        <v>14</v>
+      </c>
       <c r="H31" s="8" t="s">
         <v>63</v>
       </c>
@@ -3776,8 +4437,12 @@
       <c r="L31" s="8">
         <v>0.73</v>
       </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
+      <c r="M31" s="22">
+        <v>92</v>
+      </c>
+      <c r="N31" s="22">
+        <v>9</v>
+      </c>
       <c r="O31" s="12" t="s">
         <v>63</v>
       </c>
@@ -3793,8 +4458,12 @@
       <c r="S31" s="12">
         <v>0.01</v>
       </c>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
+      <c r="T31" s="22">
+        <v>205</v>
+      </c>
+      <c r="U31" s="22">
+        <v>22</v>
+      </c>
       <c r="V31" s="8" t="s">
         <v>63</v>
       </c>
@@ -3810,8 +4479,12 @@
       <c r="Z31" s="8">
         <v>0.45</v>
       </c>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
+      <c r="AA31" s="22">
+        <v>84</v>
+      </c>
+      <c r="AB31" s="22">
+        <v>14</v>
+      </c>
       <c r="AC31" s="8" t="s">
         <v>63</v>
       </c>
@@ -3827,9 +4500,14 @@
       <c r="AG31" s="8">
         <v>0.49</v>
       </c>
-      <c r="AH31" s="8"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH31" s="22">
+        <v>5</v>
+      </c>
+      <c r="AI31" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>64</v>
       </c>
@@ -3845,8 +4523,12 @@
       <c r="E32" s="13">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="F32" s="22">
+        <v>50</v>
+      </c>
+      <c r="G32" s="22">
+        <v>11</v>
+      </c>
       <c r="H32" s="14" t="s">
         <v>64</v>
       </c>
@@ -3862,8 +4544,12 @@
       <c r="L32" s="14">
         <v>0.04</v>
       </c>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
+      <c r="M32" s="22">
+        <v>95</v>
+      </c>
+      <c r="N32" s="22">
+        <v>17</v>
+      </c>
       <c r="O32" s="13" t="s">
         <v>64</v>
       </c>
@@ -3879,8 +4565,12 @@
       <c r="S32" s="13">
         <v>0.62</v>
       </c>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
+      <c r="T32" s="3">
+        <v>45</v>
+      </c>
+      <c r="U32" s="3">
+        <v>9</v>
+      </c>
       <c r="V32" s="13" t="s">
         <v>64</v>
       </c>
@@ -3896,8 +4586,12 @@
       <c r="Z32" s="13">
         <v>0.46</v>
       </c>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
+      <c r="AA32" s="23">
+        <v>87</v>
+      </c>
+      <c r="AB32" s="23">
+        <v>16</v>
+      </c>
       <c r="AC32" s="14" t="s">
         <v>64</v>
       </c>
@@ -3913,9 +4607,14 @@
       <c r="AG32" s="14">
         <v>0.06</v>
       </c>
-      <c r="AH32" s="13"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH32" s="22">
+        <v>30</v>
+      </c>
+      <c r="AI32" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>65</v>
       </c>
@@ -3931,8 +4630,12 @@
       <c r="E33" s="13">
         <v>0.83</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="F33" s="22">
+        <v>264</v>
+      </c>
+      <c r="G33" s="22">
+        <v>24</v>
+      </c>
       <c r="H33" s="13" t="s">
         <v>65</v>
       </c>
@@ -3948,8 +4651,12 @@
       <c r="L33" s="13">
         <v>0.93</v>
       </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
+      <c r="M33" s="22">
+        <v>176</v>
+      </c>
+      <c r="N33" s="22">
+        <v>24</v>
+      </c>
       <c r="O33" s="13" t="s">
         <v>65</v>
       </c>
@@ -3965,8 +4672,12 @@
       <c r="S33" s="13">
         <v>0.82</v>
       </c>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
+      <c r="T33" s="22">
+        <v>178</v>
+      </c>
+      <c r="U33" s="22">
+        <v>27</v>
+      </c>
       <c r="V33" s="13" t="s">
         <v>65</v>
       </c>
@@ -3982,8 +4693,12 @@
       <c r="Z33" s="13">
         <v>0.74</v>
       </c>
-      <c r="AA33" s="13"/>
-      <c r="AB33" s="13"/>
+      <c r="AA33" s="23">
+        <v>208</v>
+      </c>
+      <c r="AB33" s="23">
+        <v>27</v>
+      </c>
       <c r="AC33" s="13" t="s">
         <v>65</v>
       </c>
@@ -3999,9 +4714,14 @@
       <c r="AG33" s="13">
         <v>0.32</v>
       </c>
-      <c r="AH33" s="13"/>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH33" s="22">
+        <v>25</v>
+      </c>
+      <c r="AI33" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>66</v>
       </c>
@@ -4017,8 +4737,12 @@
       <c r="E34" s="14">
         <v>0.02</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="F34" s="22">
+        <v>84</v>
+      </c>
+      <c r="G34" s="22">
+        <v>16</v>
+      </c>
       <c r="H34" s="13" t="s">
         <v>66</v>
       </c>
@@ -4034,8 +4758,12 @@
       <c r="L34" s="13">
         <v>0.62</v>
       </c>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
+      <c r="M34" s="22">
+        <v>105</v>
+      </c>
+      <c r="N34" s="22">
+        <v>11</v>
+      </c>
       <c r="O34" s="13" t="s">
         <v>66</v>
       </c>
@@ -4051,8 +4779,12 @@
       <c r="S34" s="13">
         <v>0.24</v>
       </c>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
+      <c r="T34" s="22">
+        <v>31</v>
+      </c>
+      <c r="U34" s="22">
+        <v>9</v>
+      </c>
       <c r="V34" s="13" t="s">
         <v>66</v>
       </c>
@@ -4068,8 +4800,12 @@
       <c r="Z34" s="13">
         <v>0.64</v>
       </c>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
+      <c r="AA34" s="23">
+        <v>223</v>
+      </c>
+      <c r="AB34" s="23">
+        <v>19</v>
+      </c>
       <c r="AC34" s="13" t="s">
         <v>66</v>
       </c>
@@ -4085,9 +4821,14 @@
       <c r="AG34" s="13">
         <v>0.13</v>
       </c>
-      <c r="AH34" s="13"/>
-    </row>
-    <row r="35" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AH34" s="23">
+        <v>32</v>
+      </c>
+      <c r="AI34" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>67</v>
       </c>
@@ -4103,8 +4844,12 @@
       <c r="E35" s="16">
         <v>0.7</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
+      <c r="F35" s="17">
+        <v>34</v>
+      </c>
+      <c r="G35" s="17">
+        <v>4</v>
+      </c>
       <c r="H35" s="15" t="s">
         <v>67</v>
       </c>
@@ -4120,8 +4865,12 @@
       <c r="L35" s="15">
         <v>0.06</v>
       </c>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
+      <c r="M35" s="17">
+        <v>34</v>
+      </c>
+      <c r="N35" s="16">
+        <v>7</v>
+      </c>
       <c r="O35" s="17" t="s">
         <v>67</v>
       </c>
@@ -4137,8 +4886,12 @@
       <c r="S35" s="16">
         <v>0.37</v>
       </c>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
+      <c r="T35" s="16">
+        <v>9</v>
+      </c>
+      <c r="U35" s="16">
+        <v>2</v>
+      </c>
       <c r="V35" s="17" t="s">
         <v>67</v>
       </c>
@@ -4154,8 +4907,12 @@
       <c r="Z35" s="16">
         <v>0.74</v>
       </c>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
+      <c r="AA35" s="17">
+        <v>98</v>
+      </c>
+      <c r="AB35" s="16">
+        <v>12</v>
+      </c>
       <c r="AC35" s="17" t="s">
         <v>67</v>
       </c>
@@ -4171,7 +4928,22 @@
       <c r="AG35" s="16">
         <v>0.91</v>
       </c>
-      <c r="AH35" s="16"/>
+      <c r="AH35" s="16">
+        <v>3</v>
+      </c>
+      <c r="AI35" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4180,10 +4952,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5577267-BCA2-5748-AEA2-983D3E1A1019}">
-  <dimension ref="A1:AH47"/>
+  <dimension ref="A1:AH133"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="AF91" sqref="AF91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4197,13 +4969,13 @@
   <sheetData>
     <row r="1" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
@@ -4318,7 +5090,7 @@
         <v>19.829999999999998</v>
       </c>
       <c r="AE7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
@@ -4377,7 +5149,7 @@
         <v>2.62</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF8" t="s">
         <v>72</v>
@@ -4971,16 +5743,16 @@
         <v>64</v>
       </c>
       <c r="AD17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
@@ -5049,16 +5821,16 @@
         <v>65</v>
       </c>
       <c r="AD18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -5176,16 +5948,16 @@
         <v>67</v>
       </c>
       <c r="P20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V20" t="s">
         <v>67</v>
@@ -5207,21 +5979,21 @@
         <v>67</v>
       </c>
       <c r="AD20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="2">
         <v>0.24</v>
@@ -5237,7 +6009,7 @@
       </c>
       <c r="F21" s="2"/>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I21" s="3">
         <v>0.05</v>
@@ -5253,7 +6025,7 @@
       </c>
       <c r="M21" s="3"/>
       <c r="O21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P21">
         <v>-0.11</v>
@@ -5268,7 +6040,7 @@
         <v>0.71</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W21" s="2">
         <v>-0.31</v>
@@ -5284,7 +6056,7 @@
       </c>
       <c r="AA21" s="3"/>
       <c r="AC21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD21">
         <v>0.16</v>
@@ -5301,7 +6073,7 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="2">
         <v>-2.52</v>
@@ -5317,7 +6089,7 @@
       </c>
       <c r="F22" s="2"/>
       <c r="H22" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I22" s="3">
         <v>-7.0000000000000007E-2</v>
@@ -5333,7 +6105,7 @@
       </c>
       <c r="M22" s="3"/>
       <c r="O22" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P22">
         <v>0.69</v>
@@ -5348,7 +6120,7 @@
         <v>0.17</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W22" s="3">
         <v>0.01</v>
@@ -5364,12 +6136,12 @@
       </c>
       <c r="AA22" s="3"/>
       <c r="AC22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="2">
         <v>-0.32</v>
@@ -5385,7 +6157,7 @@
       </c>
       <c r="F23" s="2"/>
       <c r="H23" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I23" s="3">
         <v>-0.09</v>
@@ -5401,7 +6173,7 @@
       </c>
       <c r="M23" s="3"/>
       <c r="O23" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P23">
         <v>0.03</v>
@@ -5416,7 +6188,7 @@
         <v>0.88</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W23" s="3">
         <v>0.26</v>
@@ -5432,12 +6204,12 @@
       </c>
       <c r="AA23" s="3"/>
       <c r="AC23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="2">
         <v>-0.26</v>
@@ -5453,7 +6225,7 @@
       </c>
       <c r="F24" s="2"/>
       <c r="H24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24" s="3">
         <v>-0.21</v>
@@ -5469,7 +6241,7 @@
       </c>
       <c r="M24" s="3"/>
       <c r="O24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P24">
         <v>-0.88</v>
@@ -5484,7 +6256,7 @@
         <v>0.88</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W24" s="2">
         <v>0.3</v>
@@ -5500,12 +6272,12 @@
       </c>
       <c r="AA24" s="3"/>
       <c r="AC24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5513,7 +6285,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="H25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" s="3">
         <v>0.26</v>
@@ -5529,10 +6301,10 @@
       </c>
       <c r="M25" s="3"/>
       <c r="O25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="V25" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="W25" s="3">
         <v>0.24</v>
@@ -5548,12 +6320,12 @@
       </c>
       <c r="AA25" s="3"/>
       <c r="AC25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -5562,7 +6334,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
       <c r="H26" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
@@ -5571,7 +6343,7 @@
       <c r="M26" s="17"/>
       <c r="N26" s="16"/>
       <c r="O26" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
@@ -5580,7 +6352,7 @@
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
       <c r="V26" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W26" s="17"/>
       <c r="X26" s="17"/>
@@ -5589,7 +6361,7 @@
       <c r="AA26" s="17"/>
       <c r="AB26" s="16"/>
       <c r="AC26" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD26" s="16"/>
       <c r="AE26" s="16"/>
@@ -5658,7 +6430,7 @@
         <v>8.4</v>
       </c>
       <c r="AE28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
@@ -5669,7 +6441,7 @@
         <v>12.68</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
         <v>72</v>
@@ -5681,7 +6453,7 @@
         <v>9.08</v>
       </c>
       <c r="J29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s">
         <v>68</v>
@@ -5693,7 +6465,7 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R29" t="s">
         <v>72</v>
@@ -6324,16 +7096,16 @@
         <v>64</v>
       </c>
       <c r="AD38" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE38" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF38" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG38" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH38" s="13"/>
     </row>
@@ -6410,16 +7182,16 @@
         <v>65</v>
       </c>
       <c r="AD39" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE39" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF39" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG39" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH39" s="13"/>
     </row>
@@ -6548,16 +7320,16 @@
         <v>67</v>
       </c>
       <c r="P41" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q41" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R41" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S41" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
@@ -6582,22 +7354,22 @@
         <v>67</v>
       </c>
       <c r="AD41" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE41" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF41" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG41" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH41" s="13"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" s="14">
         <v>-0.15</v>
@@ -6614,7 +7386,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I42" s="20">
         <v>-0.06</v>
@@ -6631,7 +7403,7 @@
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
       <c r="O42" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P42" s="13">
         <v>0.11</v>
@@ -6648,7 +7420,7 @@
       <c r="T42" s="13"/>
       <c r="U42" s="13"/>
       <c r="V42" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W42" s="13">
         <v>0.05</v>
@@ -6665,7 +7437,7 @@
       <c r="AA42" s="13"/>
       <c r="AB42" s="13"/>
       <c r="AC42" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD42" s="13">
         <v>0.15</v>
@@ -6683,7 +7455,7 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" s="14">
         <v>-1.36</v>
@@ -6700,7 +7472,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I43" s="20">
         <v>0.12</v>
@@ -6717,7 +7489,7 @@
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
       <c r="O43" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P43" s="13">
         <v>-0.24</v>
@@ -6734,7 +7506,7 @@
       <c r="T43" s="13"/>
       <c r="U43" s="13"/>
       <c r="V43" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W43" s="13">
         <v>-0.22</v>
@@ -6751,7 +7523,7 @@
       <c r="AA43" s="13"/>
       <c r="AB43" s="13"/>
       <c r="AC43" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD43" s="13"/>
       <c r="AE43" s="13"/>
@@ -6761,7 +7533,7 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="14">
         <v>0.15</v>
@@ -6778,7 +7550,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I44" s="20">
         <v>0.09</v>
@@ -6795,7 +7567,7 @@
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
       <c r="O44" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P44" s="13">
         <v>-0.28000000000000003</v>
@@ -6812,7 +7584,7 @@
       <c r="T44" s="13"/>
       <c r="U44" s="13"/>
       <c r="V44" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W44" s="13">
         <v>-0.13</v>
@@ -6829,7 +7601,7 @@
       <c r="AA44" s="13"/>
       <c r="AB44" s="13"/>
       <c r="AC44" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD44" s="13"/>
       <c r="AE44" s="13"/>
@@ -6839,7 +7611,7 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" s="20">
         <v>0.1</v>
@@ -6856,7 +7628,7 @@
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
       <c r="H45" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I45" s="20">
         <v>0.03</v>
@@ -6873,7 +7645,7 @@
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
       <c r="O45" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P45" s="13">
         <v>-1.93</v>
@@ -6890,7 +7662,7 @@
       <c r="T45" s="13"/>
       <c r="U45" s="13"/>
       <c r="V45" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W45" s="13">
         <v>-0.06</v>
@@ -6907,7 +7679,7 @@
       <c r="AA45" s="13"/>
       <c r="AB45" s="13"/>
       <c r="AC45" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD45" s="13"/>
       <c r="AE45" s="13"/>
@@ -6917,7 +7689,7 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -6926,7 +7698,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="H46" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I46" s="20">
         <v>-0.23</v>
@@ -6943,7 +7715,7 @@
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
       <c r="O46" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
@@ -6952,7 +7724,7 @@
       <c r="T46" s="13"/>
       <c r="U46" s="13"/>
       <c r="V46" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W46" s="13">
         <v>-0.16</v>
@@ -6969,7 +7741,7 @@
       <c r="AA46" s="13"/>
       <c r="AB46" s="13"/>
       <c r="AC46" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD46" s="13"/>
       <c r="AE46" s="13"/>
@@ -6979,7 +7751,7 @@
     </row>
     <row r="47" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -6988,7 +7760,7 @@
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
       <c r="H47" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
@@ -6997,7 +7769,7 @@
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
       <c r="O47" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P47" s="16"/>
       <c r="Q47" s="16"/>
@@ -7006,7 +7778,7 @@
       <c r="T47" s="16"/>
       <c r="U47" s="16"/>
       <c r="V47" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W47" s="16"/>
       <c r="X47" s="16"/>
@@ -7015,7 +7787,7 @@
       <c r="AA47" s="16"/>
       <c r="AB47" s="16"/>
       <c r="AC47" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD47" s="16"/>
       <c r="AE47" s="16"/>
@@ -7023,6 +7795,5079 @@
       <c r="AG47" s="16"/>
       <c r="AH47" s="16"/>
     </row>
+    <row r="49" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W53" s="18"/>
+      <c r="X53" s="18"/>
+      <c r="Y53" s="18"/>
+      <c r="Z53" s="18"/>
+      <c r="AA53" s="18"/>
+      <c r="AB53" s="18"/>
+      <c r="AC53" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD53" s="18"/>
+      <c r="AE53" s="18"/>
+      <c r="AF53" s="18"/>
+      <c r="AG53" s="18"/>
+      <c r="AH53" s="18"/>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC54" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <v>521.76</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I55">
+        <v>489.91</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P55">
+        <v>997.36</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>16</v>
+      </c>
+      <c r="V55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W55">
+        <v>1269.8399999999999</v>
+      </c>
+      <c r="X55" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD55">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="2">
+        <v>35.590000000000003</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I56" s="3">
+        <v>14.14</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="K56" t="s">
+        <v>68</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P56" s="3">
+        <v>8.14</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="R56" t="s">
+        <v>72</v>
+      </c>
+      <c r="V56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W56" s="2">
+        <v>24.24</v>
+      </c>
+      <c r="X56" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD56" s="3">
+        <v>2.62</v>
+      </c>
+      <c r="AE56" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A58" s="9"/>
+      <c r="B58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N58" s="6"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T58" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="U58" s="6"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA58" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH58" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>0.02</v>
+      </c>
+      <c r="C59">
+        <v>0.13</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="3">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>0.06</v>
+      </c>
+      <c r="J59">
+        <v>0.24</v>
+      </c>
+      <c r="M59">
+        <v>21</v>
+      </c>
+      <c r="O59" t="s">
+        <v>2</v>
+      </c>
+      <c r="P59">
+        <v>2.95</v>
+      </c>
+      <c r="Q59">
+        <v>1.72</v>
+      </c>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="3">
+        <v>15</v>
+      </c>
+      <c r="V59" t="s">
+        <v>2</v>
+      </c>
+      <c r="W59">
+        <v>0.09</v>
+      </c>
+      <c r="X59">
+        <v>0.31</v>
+      </c>
+      <c r="AA59">
+        <v>27</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD59">
+        <v>0.04</v>
+      </c>
+      <c r="AE59">
+        <v>0.2</v>
+      </c>
+      <c r="AH59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>66</v>
+      </c>
+      <c r="H60" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J60">
+        <v>0.08</v>
+      </c>
+      <c r="M60">
+        <v>10</v>
+      </c>
+      <c r="O60" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>15</v>
+      </c>
+      <c r="V60" t="s">
+        <v>3</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>11</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD60">
+        <v>0.04</v>
+      </c>
+      <c r="AE60">
+        <v>0.2</v>
+      </c>
+      <c r="AH60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>0.04</v>
+      </c>
+      <c r="C61">
+        <v>0.19</v>
+      </c>
+      <c r="F61">
+        <v>236</v>
+      </c>
+      <c r="H61" t="s">
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <v>0.04</v>
+      </c>
+      <c r="J61">
+        <v>0.19</v>
+      </c>
+      <c r="M61">
+        <v>301</v>
+      </c>
+      <c r="O61" t="s">
+        <v>5</v>
+      </c>
+      <c r="P61">
+        <v>0.1</v>
+      </c>
+      <c r="Q61">
+        <v>0.32</v>
+      </c>
+      <c r="T61">
+        <v>161</v>
+      </c>
+      <c r="V61" t="s">
+        <v>5</v>
+      </c>
+      <c r="W61">
+        <v>0.16</v>
+      </c>
+      <c r="X61">
+        <v>0.4</v>
+      </c>
+      <c r="AA61">
+        <v>395</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD61">
+        <v>0.26</v>
+      </c>
+      <c r="AE61">
+        <v>0.51</v>
+      </c>
+      <c r="AH61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="8"/>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="8"/>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R63" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y63" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF63" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH63" s="6"/>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>-0.2</v>
+      </c>
+      <c r="C64">
+        <v>0.12</v>
+      </c>
+      <c r="D64">
+        <v>-1.64</v>
+      </c>
+      <c r="E64">
+        <v>0.1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>63</v>
+      </c>
+      <c r="I64">
+        <v>0.12</v>
+      </c>
+      <c r="J64">
+        <v>0.17</v>
+      </c>
+      <c r="K64">
+        <v>0.62</v>
+      </c>
+      <c r="L64">
+        <v>0.53</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64">
+        <v>0.39</v>
+      </c>
+      <c r="Q64">
+        <v>0.53</v>
+      </c>
+      <c r="R64">
+        <v>0.73</v>
+      </c>
+      <c r="S64">
+        <v>0.47</v>
+      </c>
+      <c r="V64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD64">
+        <v>0.46</v>
+      </c>
+      <c r="AE64">
+        <v>0.81</v>
+      </c>
+      <c r="AF64">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AG64">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H65" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65">
+        <v>-0.09</v>
+      </c>
+      <c r="J65">
+        <v>0.15</v>
+      </c>
+      <c r="K65">
+        <v>-0.63</v>
+      </c>
+      <c r="L65">
+        <v>0.53</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="T65" s="2"/>
+      <c r="V65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W65" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="X65" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>2.06</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AA65" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0.06</v>
+      </c>
+      <c r="C66">
+        <v>0.08</v>
+      </c>
+      <c r="D66">
+        <v>0.72</v>
+      </c>
+      <c r="E66">
+        <v>0.47</v>
+      </c>
+      <c r="H66" t="s">
+        <v>65</v>
+      </c>
+      <c r="I66">
+        <v>-0.01</v>
+      </c>
+      <c r="J66">
+        <v>0.16</v>
+      </c>
+      <c r="K66">
+        <v>-0.09</v>
+      </c>
+      <c r="L66">
+        <v>0.93</v>
+      </c>
+      <c r="O66" t="s">
+        <v>65</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="R66">
+        <v>0.91</v>
+      </c>
+      <c r="S66">
+        <v>0.36</v>
+      </c>
+      <c r="V66" t="s">
+        <v>65</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X66" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="AA66" s="3"/>
+      <c r="AC66" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0.12</v>
+      </c>
+      <c r="C67">
+        <v>0.09</v>
+      </c>
+      <c r="D67">
+        <v>1.35</v>
+      </c>
+      <c r="E67">
+        <v>0.18</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="K67" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L67" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="M67" t="s">
+        <v>94</v>
+      </c>
+      <c r="O67" t="s">
+        <v>66</v>
+      </c>
+      <c r="P67" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R67">
+        <v>0.73</v>
+      </c>
+      <c r="S67">
+        <v>0.46</v>
+      </c>
+      <c r="V67" t="s">
+        <v>66</v>
+      </c>
+      <c r="W67" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="X67" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="Y67" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="Z67" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="AA67" s="3"/>
+      <c r="AC67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD67" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="AE67" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="AF67" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AG67" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="H68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1.89</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="M68" s="3"/>
+      <c r="O68" t="s">
+        <v>67</v>
+      </c>
+      <c r="P68" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>84</v>
+      </c>
+      <c r="R68" t="s">
+        <v>84</v>
+      </c>
+      <c r="S68" t="s">
+        <v>84</v>
+      </c>
+      <c r="V68" t="s">
+        <v>67</v>
+      </c>
+      <c r="W68" s="3">
+        <v>-0.04</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>-0.15</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="AA68" s="3"/>
+      <c r="AC68" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="H69" t="s">
+        <v>93</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="J69" s="3">
+        <v>1.47</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="M69" s="3"/>
+      <c r="O69" t="s">
+        <v>93</v>
+      </c>
+      <c r="P69">
+        <v>-0.75</v>
+      </c>
+      <c r="Q69">
+        <v>2</v>
+      </c>
+      <c r="R69">
+        <v>-0.37</v>
+      </c>
+      <c r="S69">
+        <v>0.71</v>
+      </c>
+      <c r="V69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W69" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="X69" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="Y69" s="2">
+        <v>-1.86</v>
+      </c>
+      <c r="Z69" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="AA69" s="3"/>
+      <c r="AC69" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD69">
+        <v>1.35</v>
+      </c>
+      <c r="AE69">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AF69">
+        <v>0.54</v>
+      </c>
+      <c r="AG69">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="2">
+        <v>-15.28</v>
+      </c>
+      <c r="C70" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="D70" s="2">
+        <v>-2.73</v>
+      </c>
+      <c r="E70" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="H70" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I70" s="3">
+        <v>-0.93</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1.84</v>
+      </c>
+      <c r="K70" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="M70" s="3"/>
+      <c r="O70" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P70">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="Q70">
+        <v>3.37</v>
+      </c>
+      <c r="R70">
+        <v>1.38</v>
+      </c>
+      <c r="S70">
+        <v>0.17</v>
+      </c>
+      <c r="V70" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="X70" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="AA70" s="3"/>
+      <c r="AC70" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="2">
+        <v>-1.92</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="D71" s="2">
+        <v>-2.77</v>
+      </c>
+      <c r="E71" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="H71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I71" s="3">
+        <v>-1.22</v>
+      </c>
+      <c r="J71" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="K71" s="3">
+        <v>-0.97</v>
+      </c>
+      <c r="L71" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="M71" s="3"/>
+      <c r="O71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P71">
+        <v>0.23</v>
+      </c>
+      <c r="Q71">
+        <v>1.57</v>
+      </c>
+      <c r="R71">
+        <v>0.15</v>
+      </c>
+      <c r="S71">
+        <v>0.88</v>
+      </c>
+      <c r="V71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="W71" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>1.38</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="AA71" s="3"/>
+      <c r="AC71" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="2">
+        <v>-1.6</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="D72" s="2">
+        <v>-2.23</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="H72" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-2.99</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-1.2</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="M72" s="3"/>
+      <c r="O72" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P72">
+        <v>-5.98</v>
+      </c>
+      <c r="Q72">
+        <v>40.96</v>
+      </c>
+      <c r="R72">
+        <v>-0.15</v>
+      </c>
+      <c r="S72">
+        <v>0.88</v>
+      </c>
+      <c r="T72" t="s">
+        <v>95</v>
+      </c>
+      <c r="V72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="W72" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="X72" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="Y72" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="Z72" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="AA72" s="3"/>
+      <c r="AC72" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="H73" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I73" s="3">
+        <v>3.62</v>
+      </c>
+      <c r="J73" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="K73" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="M73" s="3"/>
+      <c r="O73" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="V73" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W73" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="X73" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AA73" s="3"/>
+      <c r="AC73" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="17"/>
+      <c r="AB74" s="16"/>
+      <c r="AC74" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD74" s="16"/>
+      <c r="AE74" s="16"/>
+      <c r="AF74" s="16"/>
+      <c r="AG74" s="16"/>
+      <c r="AH74" s="16"/>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC75" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76">
+        <v>362.81</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I76">
+        <v>515.54999999999995</v>
+      </c>
+      <c r="J76" t="s">
+        <v>16</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P76">
+        <v>517.42999999999995</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>16</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W76">
+        <v>642.52</v>
+      </c>
+      <c r="X76" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC76" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD76">
+        <v>8.4</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77">
+        <v>12.68</v>
+      </c>
+      <c r="C77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" t="s">
+        <v>72</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I77">
+        <v>9.08</v>
+      </c>
+      <c r="J77" t="s">
+        <v>89</v>
+      </c>
+      <c r="K77" t="s">
+        <v>68</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P77" s="3">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="Q77" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R77" t="s">
+        <v>72</v>
+      </c>
+      <c r="V77" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W77">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X77">
+        <v>0.9</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC77" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD77">
+        <v>0.96</v>
+      </c>
+      <c r="AE77">
+        <v>0.81</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="8"/>
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD78" s="8"/>
+      <c r="AE78" s="8"/>
+      <c r="AF78" s="8"/>
+      <c r="AG78" s="8"/>
+      <c r="AH78" s="8"/>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A79" s="9"/>
+      <c r="B79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G79" s="6"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N79" s="6"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S79" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T79" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="U79" s="6"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z79" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA79" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB79" s="6"/>
+      <c r="AC79" s="9"/>
+      <c r="AD79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG79" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH79" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>1E-3</v>
+      </c>
+      <c r="C80">
+        <v>0.03</v>
+      </c>
+      <c r="F80" s="3">
+        <v>22</v>
+      </c>
+      <c r="H80" t="s">
+        <v>2</v>
+      </c>
+      <c r="I80">
+        <v>0.01</v>
+      </c>
+      <c r="J80">
+        <v>0.12</v>
+      </c>
+      <c r="M80">
+        <v>21</v>
+      </c>
+      <c r="O80" t="s">
+        <v>2</v>
+      </c>
+      <c r="P80">
+        <v>0.16</v>
+      </c>
+      <c r="Q80">
+        <v>0.4</v>
+      </c>
+      <c r="T80" s="3">
+        <v>15</v>
+      </c>
+      <c r="V80" t="s">
+        <v>2</v>
+      </c>
+      <c r="W80">
+        <v>0.04</v>
+      </c>
+      <c r="X80">
+        <v>0.21</v>
+      </c>
+      <c r="AA80">
+        <v>27</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD80">
+        <v>1E-3</v>
+      </c>
+      <c r="AE80">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AH80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>66</v>
+      </c>
+      <c r="H81" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>10</v>
+      </c>
+      <c r="O81" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>15</v>
+      </c>
+      <c r="V81" t="s">
+        <v>3</v>
+      </c>
+      <c r="W81">
+        <v>0.23</v>
+      </c>
+      <c r="X81">
+        <v>0.48</v>
+      </c>
+      <c r="AA81">
+        <v>11</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD81">
+        <v>1E-3</v>
+      </c>
+      <c r="AE81">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AF81" s="2"/>
+      <c r="AG81" s="2"/>
+      <c r="AH81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <v>0.02</v>
+      </c>
+      <c r="C82">
+        <v>0.13</v>
+      </c>
+      <c r="F82">
+        <v>236</v>
+      </c>
+      <c r="H82" t="s">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>0.08</v>
+      </c>
+      <c r="J82">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M82">
+        <v>301</v>
+      </c>
+      <c r="O82" t="s">
+        <v>5</v>
+      </c>
+      <c r="P82">
+        <v>0.06</v>
+      </c>
+      <c r="Q82">
+        <v>0.24</v>
+      </c>
+      <c r="T82">
+        <v>161</v>
+      </c>
+      <c r="V82" t="s">
+        <v>5</v>
+      </c>
+      <c r="W82">
+        <v>0.03</v>
+      </c>
+      <c r="X82">
+        <v>0.17</v>
+      </c>
+      <c r="AA82">
+        <v>395</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD82">
+        <v>0.03</v>
+      </c>
+      <c r="AE82">
+        <v>0.18</v>
+      </c>
+      <c r="AH82">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="8"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="8"/>
+      <c r="V83" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W83" s="8"/>
+      <c r="X83" s="8"/>
+      <c r="Y83" s="8"/>
+      <c r="Z83" s="8"/>
+      <c r="AA83" s="8"/>
+      <c r="AB83" s="8"/>
+      <c r="AC83" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD83" s="8"/>
+      <c r="AE83" s="8"/>
+      <c r="AF83" s="8"/>
+      <c r="AG83" s="8"/>
+      <c r="AH83" s="8"/>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q84" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R84" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X84" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y84" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA84" s="6"/>
+      <c r="AB84" s="6"/>
+      <c r="AC84" s="6"/>
+      <c r="AD84" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE84" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF84" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH84" s="6"/>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C85" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="D85" s="8">
+        <v>1.18</v>
+      </c>
+      <c r="E85" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I85" s="8">
+        <v>-0.11</v>
+      </c>
+      <c r="J85" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="K85" s="8">
+        <v>-0.8</v>
+      </c>
+      <c r="L85" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P85" s="19">
+        <v>-0.03</v>
+      </c>
+      <c r="Q85" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="R85" s="19">
+        <v>-0.17</v>
+      </c>
+      <c r="S85" s="19">
+        <v>0.87</v>
+      </c>
+      <c r="T85" s="8"/>
+      <c r="U85" s="8"/>
+      <c r="V85" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="W85" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="X85" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="Y85" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="Z85" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="AA85" s="8"/>
+      <c r="AB85" s="8"/>
+      <c r="AC85" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD85" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="AE85" s="8">
+        <v>1.84</v>
+      </c>
+      <c r="AF85" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="AG85" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="AH85" s="8"/>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A86" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="C86" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="D86" s="14">
+        <v>1.81</v>
+      </c>
+      <c r="E86" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G86" s="13"/>
+      <c r="H86" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I86" s="20">
+        <v>-0.19</v>
+      </c>
+      <c r="J86" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="K86" s="20">
+        <v>-1.53</v>
+      </c>
+      <c r="L86" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="M86" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P86" s="20">
+        <v>-0.18</v>
+      </c>
+      <c r="Q86" s="20">
+        <v>0.26</v>
+      </c>
+      <c r="R86" s="13">
+        <v>-0.69</v>
+      </c>
+      <c r="S86" s="13">
+        <v>0.49</v>
+      </c>
+      <c r="T86" s="13"/>
+      <c r="U86" s="13"/>
+      <c r="V86" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="W86" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="X86" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="Y86" s="13">
+        <v>0.49</v>
+      </c>
+      <c r="Z86" s="13">
+        <v>0.63</v>
+      </c>
+      <c r="AA86" s="13"/>
+      <c r="AB86" s="13"/>
+      <c r="AC86" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD86" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE86" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF86" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG86" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH86" s="13"/>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A87" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B87" s="20">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C87" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="D87" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="E87" s="20">
+        <v>0.92</v>
+      </c>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I87" s="20">
+        <v>0</v>
+      </c>
+      <c r="J87" s="20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K87" s="20">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+      <c r="L87" s="20">
+        <v>0.99</v>
+      </c>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P87" s="20">
+        <v>-0.26</v>
+      </c>
+      <c r="Q87" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="R87" s="13">
+        <v>-1.32</v>
+      </c>
+      <c r="S87" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="T87" s="13"/>
+      <c r="U87" s="13"/>
+      <c r="V87" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="W87" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="X87" s="13">
+        <v>0.41</v>
+      </c>
+      <c r="Y87" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="Z87" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="AA87" s="13"/>
+      <c r="AB87" s="13"/>
+      <c r="AC87" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD87" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE87" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF87" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG87" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH87" s="13"/>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A88" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B88" s="20">
+        <v>0.06</v>
+      </c>
+      <c r="C88" s="20">
+        <v>0.06</v>
+      </c>
+      <c r="D88" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="E88" s="20">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I88" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J88" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="K88" s="20">
+        <v>0.08</v>
+      </c>
+      <c r="L88" s="20">
+        <v>0.94</v>
+      </c>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P88" s="20">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="Q88" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="R88" s="13">
+        <v>-0.98</v>
+      </c>
+      <c r="S88" s="13">
+        <v>0.33</v>
+      </c>
+      <c r="T88" s="13"/>
+      <c r="U88" s="13"/>
+      <c r="V88" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="W88" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="X88" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="Y88" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z88" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="AA88" s="13"/>
+      <c r="AB88" s="13"/>
+      <c r="AC88" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD88" s="20">
+        <v>-0.15</v>
+      </c>
+      <c r="AE88" s="20">
+        <v>0.19</v>
+      </c>
+      <c r="AF88" s="20">
+        <v>-0.8</v>
+      </c>
+      <c r="AG88" s="20">
+        <v>0.42</v>
+      </c>
+      <c r="AH88" s="13"/>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A89" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" s="20">
+        <v>-0.13</v>
+      </c>
+      <c r="C89" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="D89" s="20">
+        <v>-0.52</v>
+      </c>
+      <c r="E89" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I89" s="20">
+        <v>-0.37</v>
+      </c>
+      <c r="J89" s="20">
+        <v>0.37</v>
+      </c>
+      <c r="K89" s="20">
+        <v>-1.01</v>
+      </c>
+      <c r="L89" s="20">
+        <v>0.31</v>
+      </c>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="P89" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q89" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R89" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="S89" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="T89" s="13"/>
+      <c r="U89" s="13"/>
+      <c r="V89" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="W89" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="X89" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="Y89" s="13">
+        <v>0.61</v>
+      </c>
+      <c r="Z89" s="13">
+        <v>0.54</v>
+      </c>
+      <c r="AA89" s="13"/>
+      <c r="AB89" s="13"/>
+      <c r="AC89" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD89" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE89" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF89" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG89" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH89" s="13"/>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A90" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="14">
+        <v>-0.9</v>
+      </c>
+      <c r="C90" s="14">
+        <v>0.52</v>
+      </c>
+      <c r="D90" s="14">
+        <v>-1.74</v>
+      </c>
+      <c r="E90" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I90" s="20">
+        <v>-0.86</v>
+      </c>
+      <c r="J90" s="20">
+        <v>1.25</v>
+      </c>
+      <c r="K90" s="20">
+        <v>-0.69</v>
+      </c>
+      <c r="L90" s="20">
+        <v>0.49</v>
+      </c>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P90" s="13">
+        <v>0.76</v>
+      </c>
+      <c r="Q90" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="R90" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="S90" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="T90" s="13"/>
+      <c r="U90" s="13"/>
+      <c r="V90" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="W90" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="X90" s="13">
+        <v>0.61</v>
+      </c>
+      <c r="Y90" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="Z90" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="AA90" s="13"/>
+      <c r="AB90" s="13"/>
+      <c r="AC90" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD90" s="13">
+        <v>1.24</v>
+      </c>
+      <c r="AE90" s="13">
+        <v>1.49</v>
+      </c>
+      <c r="AF90" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="AG90" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="AH90" s="13"/>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A91" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" s="14">
+        <v>-8.2200000000000006</v>
+      </c>
+      <c r="C91" s="14">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="D91" s="14">
+        <v>-1.77</v>
+      </c>
+      <c r="E91" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I91" s="20">
+        <v>1.75</v>
+      </c>
+      <c r="J91" s="20">
+        <v>1.62</v>
+      </c>
+      <c r="K91" s="20">
+        <v>1.08</v>
+      </c>
+      <c r="L91" s="20">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
+      <c r="O91" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P91" s="13">
+        <v>-1.61</v>
+      </c>
+      <c r="Q91" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="R91" s="13">
+        <v>-1.07</v>
+      </c>
+      <c r="S91" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T91" s="13"/>
+      <c r="U91" s="13"/>
+      <c r="V91" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="W91" s="13">
+        <v>-1.08</v>
+      </c>
+      <c r="X91" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="Y91" s="13">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="Z91" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="AA91" s="13"/>
+      <c r="AB91" s="13"/>
+      <c r="AC91" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD91" s="13"/>
+      <c r="AE91" s="13"/>
+      <c r="AF91" s="13"/>
+      <c r="AG91" s="13"/>
+      <c r="AH91" s="13"/>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A92" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B92" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="C92" s="14">
+        <v>0.54</v>
+      </c>
+      <c r="D92" s="14">
+        <v>1.72</v>
+      </c>
+      <c r="E92" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I92" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="J92" s="20">
+        <v>1.62</v>
+      </c>
+      <c r="K92" s="20">
+        <v>0.78</v>
+      </c>
+      <c r="L92" s="20">
+        <v>0.44</v>
+      </c>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+      <c r="O92" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P92" s="13">
+        <v>-1.91</v>
+      </c>
+      <c r="Q92" s="13">
+        <v>1.33</v>
+      </c>
+      <c r="R92" s="13">
+        <v>-1.44</v>
+      </c>
+      <c r="S92" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="T92" s="13"/>
+      <c r="U92" s="13"/>
+      <c r="V92" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="W92" s="13">
+        <v>-0.64</v>
+      </c>
+      <c r="X92" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="Y92" s="13">
+        <v>-0.91</v>
+      </c>
+      <c r="Z92" s="13">
+        <v>0.36</v>
+      </c>
+      <c r="AA92" s="13"/>
+      <c r="AB92" s="13"/>
+      <c r="AC92" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD92" s="13"/>
+      <c r="AE92" s="13"/>
+      <c r="AF92" s="13"/>
+      <c r="AG92" s="13"/>
+      <c r="AH92" s="13"/>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A93" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" s="20">
+        <v>0.59</v>
+      </c>
+      <c r="C93" s="20">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D93" s="20">
+        <v>1.06</v>
+      </c>
+      <c r="E93" s="20">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I93" s="20">
+        <v>0.37</v>
+      </c>
+      <c r="J93" s="20">
+        <v>1.98</v>
+      </c>
+      <c r="K93" s="20">
+        <v>0.18</v>
+      </c>
+      <c r="L93" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P93" s="13">
+        <v>-13.02</v>
+      </c>
+      <c r="Q93" s="13">
+        <v>22.74</v>
+      </c>
+      <c r="R93" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="S93" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="T93" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="U93" s="13"/>
+      <c r="V93" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="W93" s="13">
+        <v>-0.27</v>
+      </c>
+      <c r="X93" s="13">
+        <v>0.61</v>
+      </c>
+      <c r="Y93" s="13">
+        <v>-0.45</v>
+      </c>
+      <c r="Z93" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="AA93" s="13"/>
+      <c r="AB93" s="13"/>
+      <c r="AC93" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD93" s="13"/>
+      <c r="AE93" s="13"/>
+      <c r="AF93" s="13"/>
+      <c r="AG93" s="13"/>
+      <c r="AH93" s="13"/>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A94" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I94" s="20">
+        <v>-3.19</v>
+      </c>
+      <c r="J94" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="K94" s="20">
+        <v>-1.27</v>
+      </c>
+      <c r="L94" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
+      <c r="U94" s="13"/>
+      <c r="V94" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="W94" s="13">
+        <v>-0.78</v>
+      </c>
+      <c r="X94" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="Y94" s="13">
+        <v>-0.92</v>
+      </c>
+      <c r="Z94" s="13">
+        <v>0.36</v>
+      </c>
+      <c r="AA94" s="13"/>
+      <c r="AB94" s="13"/>
+      <c r="AC94" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD94" s="13"/>
+      <c r="AE94" s="13"/>
+      <c r="AF94" s="13"/>
+      <c r="AG94" s="13"/>
+      <c r="AH94" s="13"/>
+    </row>
+    <row r="95" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="16"/>
+      <c r="S95" s="16"/>
+      <c r="T95" s="16"/>
+      <c r="U95" s="16"/>
+      <c r="V95" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="W95" s="16"/>
+      <c r="X95" s="16"/>
+      <c r="Y95" s="16"/>
+      <c r="Z95" s="16"/>
+      <c r="AA95" s="16"/>
+      <c r="AB95" s="16"/>
+      <c r="AC95" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD95" s="16"/>
+      <c r="AE95" s="16"/>
+      <c r="AF95" s="16"/>
+      <c r="AG95" s="16"/>
+      <c r="AH95" s="16"/>
+    </row>
+    <row r="97" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A100" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
+      <c r="O101" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P101" s="18"/>
+      <c r="Q101" s="18"/>
+      <c r="R101" s="18"/>
+      <c r="S101" s="18"/>
+      <c r="T101" s="18"/>
+      <c r="U101" s="18"/>
+      <c r="V101" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W101" s="18"/>
+      <c r="X101" s="18"/>
+      <c r="Y101" s="18"/>
+      <c r="Z101" s="18"/>
+      <c r="AA101" s="18"/>
+      <c r="AB101" s="18"/>
+      <c r="AC101" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD101" s="18"/>
+      <c r="AE101" s="18"/>
+      <c r="AF101" s="18"/>
+      <c r="AG101" s="18"/>
+      <c r="AH101" s="18"/>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC102" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B103">
+        <v>568.77</v>
+      </c>
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I103">
+        <v>513.46</v>
+      </c>
+      <c r="J103" t="s">
+        <v>16</v>
+      </c>
+      <c r="O103" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P103">
+        <v>1047.98</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>16</v>
+      </c>
+      <c r="V103" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W103">
+        <v>1290.56</v>
+      </c>
+      <c r="X103" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC103" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD103">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B104" s="2">
+        <v>22.65</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I104" s="3">
+        <v>7.79</v>
+      </c>
+      <c r="J104" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K104" t="s">
+        <v>68</v>
+      </c>
+      <c r="O104" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P104" s="3">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="Q104" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="R104" t="s">
+        <v>72</v>
+      </c>
+      <c r="V104" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W104" s="2">
+        <v>17.54</v>
+      </c>
+      <c r="X104" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC104" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD104" s="3">
+        <v>2.62</v>
+      </c>
+      <c r="AE104" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF104" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="8"/>
+      <c r="R105" s="8"/>
+      <c r="S105" s="8"/>
+      <c r="T105" s="8"/>
+      <c r="U105" s="8"/>
+      <c r="V105" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="W105" s="8"/>
+      <c r="X105" s="8"/>
+      <c r="Y105" s="8"/>
+      <c r="Z105" s="8"/>
+      <c r="AA105" s="8"/>
+      <c r="AB105" s="8"/>
+      <c r="AC105" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD105" s="8"/>
+      <c r="AE105" s="8"/>
+      <c r="AF105" s="8"/>
+      <c r="AG105" s="8"/>
+      <c r="AH105" s="8"/>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A106" s="9"/>
+      <c r="B106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G106" s="6"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N106" s="6"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q106" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R106" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S106" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T106" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="U106" s="6"/>
+      <c r="V106" s="9"/>
+      <c r="W106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X106" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y106" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z106" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA106" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB106" s="6"/>
+      <c r="AC106" s="9"/>
+      <c r="AD106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE106" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF106" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG106" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH106" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C107">
+        <v>0.08</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="3">
+        <v>22</v>
+      </c>
+      <c r="H107" t="s">
+        <v>2</v>
+      </c>
+      <c r="I107">
+        <v>0.05</v>
+      </c>
+      <c r="J107">
+        <v>0.23</v>
+      </c>
+      <c r="M107">
+        <v>21</v>
+      </c>
+      <c r="O107" t="s">
+        <v>2</v>
+      </c>
+      <c r="P107">
+        <v>2.91</v>
+      </c>
+      <c r="Q107">
+        <v>1.71</v>
+      </c>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="3">
+        <v>15</v>
+      </c>
+      <c r="V107" t="s">
+        <v>2</v>
+      </c>
+      <c r="W107">
+        <v>0.08</v>
+      </c>
+      <c r="X107">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AA107">
+        <v>27</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD107">
+        <v>0.04</v>
+      </c>
+      <c r="AE107">
+        <v>0.2</v>
+      </c>
+      <c r="AH107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>66</v>
+      </c>
+      <c r="H108" t="s">
+        <v>3</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>10</v>
+      </c>
+      <c r="O108" t="s">
+        <v>3</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>15</v>
+      </c>
+      <c r="V108" t="s">
+        <v>3</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>11</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD108">
+        <v>0.04</v>
+      </c>
+      <c r="AE108">
+        <v>0.2</v>
+      </c>
+      <c r="AH108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109">
+        <v>0.04</v>
+      </c>
+      <c r="C109">
+        <v>0.22</v>
+      </c>
+      <c r="F109">
+        <v>236</v>
+      </c>
+      <c r="H109" t="s">
+        <v>5</v>
+      </c>
+      <c r="I109">
+        <v>0.04</v>
+      </c>
+      <c r="J109">
+        <v>0.19</v>
+      </c>
+      <c r="M109">
+        <v>301</v>
+      </c>
+      <c r="O109" t="s">
+        <v>5</v>
+      </c>
+      <c r="P109">
+        <v>0.1</v>
+      </c>
+      <c r="Q109">
+        <v>0.32</v>
+      </c>
+      <c r="T109">
+        <v>161</v>
+      </c>
+      <c r="V109" t="s">
+        <v>5</v>
+      </c>
+      <c r="W109">
+        <v>0.17</v>
+      </c>
+      <c r="X109">
+        <v>0.41</v>
+      </c>
+      <c r="AA109">
+        <v>395</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD109">
+        <v>0.26</v>
+      </c>
+      <c r="AE109">
+        <v>0.51</v>
+      </c>
+      <c r="AH109">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A110" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="8"/>
+      <c r="R110" s="8"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="8"/>
+      <c r="U110" s="8"/>
+      <c r="V110" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W110" s="8"/>
+      <c r="X110" s="8"/>
+      <c r="Y110" s="8"/>
+      <c r="Z110" s="8"/>
+      <c r="AA110" s="8"/>
+      <c r="AB110" s="8"/>
+      <c r="AC110" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD110" s="8"/>
+      <c r="AE110" s="8"/>
+      <c r="AF110" s="8"/>
+      <c r="AG110" s="8"/>
+      <c r="AH110" s="8"/>
+    </row>
+    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K111" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q111" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R111" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T111" s="6"/>
+      <c r="U111" s="6"/>
+      <c r="V111" s="6"/>
+      <c r="W111" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X111" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y111" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA111" s="6"/>
+      <c r="AB111" s="6"/>
+      <c r="AC111" s="6"/>
+      <c r="AD111" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE111" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF111" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH111" s="6"/>
+    </row>
+    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>63</v>
+      </c>
+      <c r="B112">
+        <v>0.08</v>
+      </c>
+      <c r="C112">
+        <v>0.09</v>
+      </c>
+      <c r="D112">
+        <v>-0.91</v>
+      </c>
+      <c r="E112">
+        <v>0.36</v>
+      </c>
+      <c r="H112" t="s">
+        <v>63</v>
+      </c>
+      <c r="I112">
+        <v>0.03</v>
+      </c>
+      <c r="J112">
+        <v>0.11</v>
+      </c>
+      <c r="K112">
+        <v>0.31</v>
+      </c>
+      <c r="L112">
+        <v>0.76</v>
+      </c>
+      <c r="O112" t="s">
+        <v>63</v>
+      </c>
+      <c r="P112">
+        <v>0.32</v>
+      </c>
+      <c r="Q112">
+        <v>0.49</v>
+      </c>
+      <c r="R112">
+        <v>0.66</v>
+      </c>
+      <c r="S112">
+        <v>0.51</v>
+      </c>
+      <c r="V112" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W112" s="3">
+        <v>-0.26</v>
+      </c>
+      <c r="X112" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="Y112" s="3">
+        <v>-1.6</v>
+      </c>
+      <c r="Z112" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD112">
+        <v>0.46</v>
+      </c>
+      <c r="AE112">
+        <v>0.81</v>
+      </c>
+      <c r="AF112">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AG112">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="F113" t="s">
+        <v>103</v>
+      </c>
+      <c r="H113" t="s">
+        <v>64</v>
+      </c>
+      <c r="I113">
+        <v>-0.1</v>
+      </c>
+      <c r="J113">
+        <v>0.13</v>
+      </c>
+      <c r="K113">
+        <v>-0.74</v>
+      </c>
+      <c r="L113">
+        <v>0.46</v>
+      </c>
+      <c r="O113" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P113" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="Q113" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="R113" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="S113" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="T113" s="2"/>
+      <c r="V113" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W113" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="X113" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="Y113" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="Z113" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="AA113" s="3"/>
+      <c r="AC113" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF113" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>65</v>
+      </c>
+      <c r="B114">
+        <v>-0.03</v>
+      </c>
+      <c r="C114">
+        <v>0.06</v>
+      </c>
+      <c r="D114">
+        <v>-0.54</v>
+      </c>
+      <c r="E114">
+        <v>0.59</v>
+      </c>
+      <c r="H114" t="s">
+        <v>65</v>
+      </c>
+      <c r="I114">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="J114">
+        <v>0.09</v>
+      </c>
+      <c r="K114">
+        <v>-0.03</v>
+      </c>
+      <c r="L114">
+        <v>0.98</v>
+      </c>
+      <c r="O114" t="s">
+        <v>65</v>
+      </c>
+      <c r="P114" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="Q114" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="R114">
+        <v>0.79</v>
+      </c>
+      <c r="S114">
+        <v>0.43</v>
+      </c>
+      <c r="V114" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W114" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="X114" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="Y114" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="Z114" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AA114" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD114" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF114" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG114" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B115" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D115" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="E115" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F115" t="s">
+        <v>104</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I115" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J115" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="K115" s="2">
+        <v>2.39</v>
+      </c>
+      <c r="L115" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="M115" t="s">
+        <v>107</v>
+      </c>
+      <c r="O115" t="s">
+        <v>66</v>
+      </c>
+      <c r="P115" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q115" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="R115">
+        <v>1.05</v>
+      </c>
+      <c r="S115">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V115" t="s">
+        <v>66</v>
+      </c>
+      <c r="W115" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="X115" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="Y115" s="3">
+        <v>1.18</v>
+      </c>
+      <c r="Z115" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="AA115" s="3"/>
+      <c r="AC115" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD115" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="AE115" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="AF115" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AG115" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D116" s="2">
+        <v>3.94</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I116" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J116" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="K116" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="L116" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="M116" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O116" t="s">
+        <v>67</v>
+      </c>
+      <c r="P116" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>84</v>
+      </c>
+      <c r="R116" t="s">
+        <v>84</v>
+      </c>
+      <c r="S116" t="s">
+        <v>84</v>
+      </c>
+      <c r="V116" t="s">
+        <v>67</v>
+      </c>
+      <c r="W116" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="X116" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="Y116" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Z116" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AA116" s="3"/>
+      <c r="AC116" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD116" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE116" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF116" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG116" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" s="17">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C117" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="D117" s="17">
+        <v>-0.34</v>
+      </c>
+      <c r="E117" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="F117" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I117" s="17">
+        <v>-0.16</v>
+      </c>
+      <c r="J117" s="17">
+        <v>0.72</v>
+      </c>
+      <c r="K117" s="17">
+        <v>-0.23</v>
+      </c>
+      <c r="L117" s="17">
+        <v>0.82</v>
+      </c>
+      <c r="M117" s="17"/>
+      <c r="N117" s="16"/>
+      <c r="O117" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P117" s="16">
+        <v>-0.12</v>
+      </c>
+      <c r="Q117" s="16">
+        <v>1.54</v>
+      </c>
+      <c r="R117" s="16">
+        <v>-0.08</v>
+      </c>
+      <c r="S117" s="16">
+        <v>0.93</v>
+      </c>
+      <c r="T117" s="16"/>
+      <c r="U117" s="16"/>
+      <c r="V117" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="W117" s="17">
+        <v>-0.41</v>
+      </c>
+      <c r="X117" s="17">
+        <v>0.32</v>
+      </c>
+      <c r="Y117" s="17">
+        <v>-1.28</v>
+      </c>
+      <c r="Z117" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="AA117" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB117" s="16"/>
+      <c r="AC117" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD117" s="16">
+        <v>1.35</v>
+      </c>
+      <c r="AE117" s="16">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AF117" s="16">
+        <v>0.54</v>
+      </c>
+      <c r="AG117" s="16">
+        <v>0.59</v>
+      </c>
+      <c r="AH117" s="16"/>
+    </row>
+    <row r="118" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC118" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B119">
+        <v>374</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I119">
+        <v>523.98</v>
+      </c>
+      <c r="J119" t="s">
+        <v>16</v>
+      </c>
+      <c r="O119" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P119">
+        <v>523.94000000000005</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>16</v>
+      </c>
+      <c r="V119" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W119">
+        <v>646.77</v>
+      </c>
+      <c r="X119" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC119" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD119">
+        <v>8.4</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120">
+        <v>4.03</v>
+      </c>
+      <c r="C120" t="s">
+        <v>112</v>
+      </c>
+      <c r="D120" t="s">
+        <v>72</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I120">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J120" t="s">
+        <v>114</v>
+      </c>
+      <c r="K120" t="s">
+        <v>68</v>
+      </c>
+      <c r="O120" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P120" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="Q120" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R120" t="s">
+        <v>72</v>
+      </c>
+      <c r="V120" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W120">
+        <v>2.88</v>
+      </c>
+      <c r="X120">
+        <v>0.82</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC120" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD120">
+        <v>0.96</v>
+      </c>
+      <c r="AE120">
+        <v>0.81</v>
+      </c>
+      <c r="AF120" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A121" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P121" s="8"/>
+      <c r="Q121" s="8"/>
+      <c r="R121" s="8"/>
+      <c r="S121" s="8"/>
+      <c r="T121" s="8"/>
+      <c r="U121" s="8"/>
+      <c r="V121" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="W121" s="8"/>
+      <c r="X121" s="8"/>
+      <c r="Y121" s="8"/>
+      <c r="Z121" s="8"/>
+      <c r="AA121" s="8"/>
+      <c r="AB121" s="8"/>
+      <c r="AC121" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD121" s="8"/>
+      <c r="AE121" s="8"/>
+      <c r="AF121" s="8"/>
+      <c r="AG121" s="8"/>
+      <c r="AH121" s="8"/>
+    </row>
+    <row r="122" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A122" s="9"/>
+      <c r="B122" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G122" s="6"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K122" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L122" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N122" s="6"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q122" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R122" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S122" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T122" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="U122" s="6"/>
+      <c r="V122" s="9"/>
+      <c r="W122" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X122" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y122" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z122" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA122" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB122" s="6"/>
+      <c r="AC122" s="9"/>
+      <c r="AD122" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE122" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF122" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG122" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH122" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="123" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>2E-3</v>
+      </c>
+      <c r="C123">
+        <v>0.04</v>
+      </c>
+      <c r="F123" s="3">
+        <v>22</v>
+      </c>
+      <c r="H123" t="s">
+        <v>2</v>
+      </c>
+      <c r="I123">
+        <v>0.01</v>
+      </c>
+      <c r="J123">
+        <v>0.1</v>
+      </c>
+      <c r="M123">
+        <v>21</v>
+      </c>
+      <c r="O123" t="s">
+        <v>2</v>
+      </c>
+      <c r="P123">
+        <v>0.13</v>
+      </c>
+      <c r="Q123">
+        <v>0.36</v>
+      </c>
+      <c r="T123" s="3">
+        <v>15</v>
+      </c>
+      <c r="V123" t="s">
+        <v>2</v>
+      </c>
+      <c r="W123">
+        <v>0.05</v>
+      </c>
+      <c r="X123">
+        <v>0.22</v>
+      </c>
+      <c r="AA123">
+        <v>27</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD123">
+        <v>1E-3</v>
+      </c>
+      <c r="AE123">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AH123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>2E-3</v>
+      </c>
+      <c r="C124">
+        <v>0.04</v>
+      </c>
+      <c r="F124">
+        <v>66</v>
+      </c>
+      <c r="H124" t="s">
+        <v>3</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>10</v>
+      </c>
+      <c r="O124" t="s">
+        <v>3</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>15</v>
+      </c>
+      <c r="V124" t="s">
+        <v>3</v>
+      </c>
+      <c r="W124">
+        <v>0.09</v>
+      </c>
+      <c r="X124">
+        <v>0.3</v>
+      </c>
+      <c r="AA124">
+        <v>11</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD124">
+        <v>1E-3</v>
+      </c>
+      <c r="AE124">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AF124" s="2"/>
+      <c r="AG124" s="2"/>
+      <c r="AH124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125">
+        <v>0.02</v>
+      </c>
+      <c r="C125">
+        <v>0.13</v>
+      </c>
+      <c r="F125">
+        <v>236</v>
+      </c>
+      <c r="H125" t="s">
+        <v>5</v>
+      </c>
+      <c r="I125">
+        <v>0.08</v>
+      </c>
+      <c r="J125">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M125">
+        <v>301</v>
+      </c>
+      <c r="O125" t="s">
+        <v>5</v>
+      </c>
+      <c r="P125">
+        <v>0.06</v>
+      </c>
+      <c r="Q125">
+        <v>0.24</v>
+      </c>
+      <c r="T125">
+        <v>161</v>
+      </c>
+      <c r="V125" t="s">
+        <v>5</v>
+      </c>
+      <c r="W125">
+        <v>0.03</v>
+      </c>
+      <c r="X125">
+        <v>0.17</v>
+      </c>
+      <c r="AA125">
+        <v>395</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD125">
+        <v>0.03</v>
+      </c>
+      <c r="AE125">
+        <v>0.18</v>
+      </c>
+      <c r="AH125">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A126" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
+      <c r="N126" s="8"/>
+      <c r="O126" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P126" s="8"/>
+      <c r="Q126" s="8"/>
+      <c r="R126" s="8"/>
+      <c r="S126" s="8"/>
+      <c r="T126" s="8"/>
+      <c r="U126" s="8"/>
+      <c r="V126" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W126" s="8"/>
+      <c r="X126" s="8"/>
+      <c r="Y126" s="8"/>
+      <c r="Z126" s="8"/>
+      <c r="AA126" s="8"/>
+      <c r="AB126" s="8"/>
+      <c r="AC126" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD126" s="8"/>
+      <c r="AE126" s="8"/>
+      <c r="AF126" s="8"/>
+      <c r="AG126" s="8"/>
+      <c r="AH126" s="8"/>
+    </row>
+    <row r="127" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L127" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="6"/>
+      <c r="P127" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q127" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R127" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S127" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T127" s="6"/>
+      <c r="U127" s="6"/>
+      <c r="V127" s="6"/>
+      <c r="W127" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X127" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y127" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z127" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA127" s="6"/>
+      <c r="AB127" s="6"/>
+      <c r="AC127" s="6"/>
+      <c r="AD127" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE127" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF127" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG127" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH127" s="6"/>
+    </row>
+    <row r="128" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A128" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B128" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C128" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="D128" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="E128" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I128" s="8">
+        <v>-0.04</v>
+      </c>
+      <c r="J128" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="K128" s="8">
+        <v>-0.44</v>
+      </c>
+      <c r="L128" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="M128" s="8"/>
+      <c r="N128" s="8"/>
+      <c r="O128" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P128" s="19">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="Q128" s="19">
+        <v>0.16</v>
+      </c>
+      <c r="R128" s="19">
+        <v>-0.91</v>
+      </c>
+      <c r="S128" s="19">
+        <v>0.36</v>
+      </c>
+      <c r="T128" s="8"/>
+      <c r="U128" s="8"/>
+      <c r="V128" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="W128" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="X128" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="Y128" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Z128" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA128" s="8"/>
+      <c r="AB128" s="8"/>
+      <c r="AC128" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD128" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="AE128" s="8">
+        <v>1.84</v>
+      </c>
+      <c r="AF128" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="AG128" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="AH128" s="8"/>
+    </row>
+    <row r="129" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A129" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B129" s="20">
+        <v>-0.03</v>
+      </c>
+      <c r="C129" s="20">
+        <v>0.09</v>
+      </c>
+      <c r="D129" s="20">
+        <v>-0.35</v>
+      </c>
+      <c r="E129" s="20">
+        <v>0.72</v>
+      </c>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I129" s="20">
+        <v>-0.18</v>
+      </c>
+      <c r="J129" s="20">
+        <v>0.12</v>
+      </c>
+      <c r="K129" s="20">
+        <v>-1.49</v>
+      </c>
+      <c r="L129" s="20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M129" s="13"/>
+      <c r="N129" s="13"/>
+      <c r="O129" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P129" s="20">
+        <v>-0.19</v>
+      </c>
+      <c r="Q129" s="20">
+        <v>0.22</v>
+      </c>
+      <c r="R129" s="13">
+        <v>-0.87</v>
+      </c>
+      <c r="S129" s="13">
+        <v>0.39</v>
+      </c>
+      <c r="T129" s="13"/>
+      <c r="U129" s="13"/>
+      <c r="V129" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="W129" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="X129" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="Y129" s="13">
+        <v>0.11</v>
+      </c>
+      <c r="Z129" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="AA129" s="13"/>
+      <c r="AB129" s="13"/>
+      <c r="AC129" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD129" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE129" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF129" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG129" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH129" s="13"/>
+    </row>
+    <row r="130" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A130" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B130" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="C130" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="D130" s="20">
+        <v>0.39</v>
+      </c>
+      <c r="E130" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I130" s="20">
+        <v>-0.04</v>
+      </c>
+      <c r="J130" s="20">
+        <v>0.08</v>
+      </c>
+      <c r="K130" s="20">
+        <v>-0.53</v>
+      </c>
+      <c r="L130" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="M130" s="13"/>
+      <c r="N130" s="13"/>
+      <c r="O130" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P130" s="20">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="Q130" s="20">
+        <v>0.16</v>
+      </c>
+      <c r="R130" s="13">
+        <v>-0.86</v>
+      </c>
+      <c r="S130" s="13">
+        <v>0.39</v>
+      </c>
+      <c r="T130" s="13"/>
+      <c r="U130" s="13"/>
+      <c r="V130" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="W130" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="X130" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="Y130" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z130" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="AA130" s="13"/>
+      <c r="AB130" s="13"/>
+      <c r="AC130" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD130" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE130" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF130" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG130" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH130" s="13"/>
+    </row>
+    <row r="131" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A131" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B131" s="20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C131" s="20">
+        <v>0.06</v>
+      </c>
+      <c r="D131" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="E131" s="20">
+        <v>0.92</v>
+      </c>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I131" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="J131" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="K131" s="20">
+        <v>0.35</v>
+      </c>
+      <c r="L131" s="20">
+        <v>0.72</v>
+      </c>
+      <c r="M131" s="13"/>
+      <c r="N131" s="13"/>
+      <c r="O131" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P131" s="20">
+        <v>-0.16</v>
+      </c>
+      <c r="Q131" s="20">
+        <v>0.22</v>
+      </c>
+      <c r="R131" s="13">
+        <v>-0.74</v>
+      </c>
+      <c r="S131" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="T131" s="13"/>
+      <c r="U131" s="13"/>
+      <c r="V131" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="W131" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="X131" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="Y131" s="13">
+        <v>0.33</v>
+      </c>
+      <c r="Z131" s="13">
+        <v>0.74</v>
+      </c>
+      <c r="AA131" s="13"/>
+      <c r="AB131" s="13"/>
+      <c r="AC131" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD131" s="20">
+        <v>-0.15</v>
+      </c>
+      <c r="AE131" s="20">
+        <v>0.19</v>
+      </c>
+      <c r="AF131" s="20">
+        <v>-0.8</v>
+      </c>
+      <c r="AG131" s="20">
+        <v>0.42</v>
+      </c>
+      <c r="AH131" s="13"/>
+    </row>
+    <row r="132" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A132" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B132" s="20">
+        <v>-0.36</v>
+      </c>
+      <c r="C132" s="20">
+        <v>0.22</v>
+      </c>
+      <c r="D132" s="20">
+        <v>-1.68</v>
+      </c>
+      <c r="E132" s="20">
+        <v>0.09</v>
+      </c>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I132" s="20">
+        <v>0.19</v>
+      </c>
+      <c r="J132" s="20">
+        <v>0.18</v>
+      </c>
+      <c r="K132" s="20">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L132" s="20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M132" s="13"/>
+      <c r="N132" s="13"/>
+      <c r="O132" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="P132" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q132" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R132" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="S132" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="T132" s="13"/>
+      <c r="U132" s="13"/>
+      <c r="V132" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="W132" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="X132" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="Y132" s="13">
+        <v>0.53</v>
+      </c>
+      <c r="Z132" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AA132" s="13"/>
+      <c r="AB132" s="13"/>
+      <c r="AC132" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD132" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE132" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF132" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG132" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH132" s="13"/>
+    </row>
+    <row r="133" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B133" s="17">
+        <v>-0.08</v>
+      </c>
+      <c r="C133" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="D133" s="17">
+        <v>-0.44</v>
+      </c>
+      <c r="E133" s="17">
+        <v>0.66</v>
+      </c>
+      <c r="F133" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I133" s="17">
+        <v>-0.08</v>
+      </c>
+      <c r="J133" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="K133" s="17">
+        <v>-0.13</v>
+      </c>
+      <c r="L133" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="M133" s="16"/>
+      <c r="N133" s="16"/>
+      <c r="O133" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P133" s="16">
+        <v>-0.13</v>
+      </c>
+      <c r="Q133" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="R133" s="16">
+        <v>-0.19</v>
+      </c>
+      <c r="S133" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="T133" s="16"/>
+      <c r="U133" s="16"/>
+      <c r="V133" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="W133" s="16">
+        <v>-0.12</v>
+      </c>
+      <c r="X133" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="Y133" s="16">
+        <v>-0.36</v>
+      </c>
+      <c r="Z133" s="16">
+        <v>0.72</v>
+      </c>
+      <c r="AA133" s="16"/>
+      <c r="AB133" s="16"/>
+      <c r="AC133" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD133" s="16">
+        <v>1.24</v>
+      </c>
+      <c r="AE133" s="16">
+        <v>1.49</v>
+      </c>
+      <c r="AF133" s="16">
+        <v>0.83</v>
+      </c>
+      <c r="AG133" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="AH133" s="16"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
